--- a/biology/Virologie/Virus_de_Yezo/Virus_de_Yezo.xlsx
+++ b/biology/Virologie/Virus_de_Yezo/Virus_de_Yezo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus de Yezo ou virus Yezo (YEZV) est un virus de la famille des Nairoviridae. C'est un virus à ARN monocaténaire de polarité négative transmis par les tiques à l'humain[1],[2] qui a été identifié en 2019 sur l'île d'Hokkaidō[3]. On le trouve chez 3 espèces locales de tiques : par ordre décroissant, Haemaphysalis megaspinosa, Ixodes ovatus, Ixodes persulcatus.
-Il est phylogénétiquement proche du virus de Sulina[2],[4], identifié chez des tiques Ixodes ricinus de Roumanie ou d'Ouzbékistan[1]. Le virus appartient au genre Orthonairovirus dont on connait 4 autres virus pathogènes pour l'humain : le virus de la fièvre hémorragique de Crimée-Congo, le virus de la maladie du mouton de Nairobi, le virus de Dugbe et le virus de Kasokero[5]. Il n’est pas encore classé comme espèce ou souche d'une espèce à définir.
-La maladie de Yezo qu'il cause se caractérise par une forte fièvre, un dysfonctionnement hépatique, une thrombocytopénie et une leucopénie[2] (respectivement une diminution des plaquettes sanguines et des leucocytes)[6].
-Les patients infectés par le virus de Yezo sont souvent coinfectés par des bactéries Borrelia, responsables de la maladie de Lyme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus de Yezo ou virus Yezo (YEZV) est un virus de la famille des Nairoviridae. C'est un virus à ARN monocaténaire de polarité négative transmis par les tiques à l'humain, qui a été identifié en 2019 sur l'île d'Hokkaidō. On le trouve chez 3 espèces locales de tiques : par ordre décroissant, Haemaphysalis megaspinosa, Ixodes ovatus, Ixodes persulcatus.
+Il est phylogénétiquement proche du virus de Sulina identifié chez des tiques Ixodes ricinus de Roumanie ou d'Ouzbékistan. Le virus appartient au genre Orthonairovirus dont on connait 4 autres virus pathogènes pour l'humain : le virus de la fièvre hémorragique de Crimée-Congo, le virus de la maladie du mouton de Nairobi, le virus de Dugbe et le virus de Kasokero. Il n’est pas encore classé comme espèce ou souche d'une espèce à définir.
+La maladie de Yezo qu'il cause se caractérise par une forte fièvre, un dysfonctionnement hépatique, une thrombocytopénie et une leucopénie (respectivement une diminution des plaquettes sanguines et des leucocytes).
+Les patients infectés par le virus de Yezo sont souvent coinfectés par des bactéries Borrelia, responsables de la maladie de Lyme.
 </t>
         </is>
       </c>
